--- a/db/clean_state_gdp.xlsx
+++ b/db/clean_state_gdp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daryarudych/Desktop/repos/Project2_Group1/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B923397-1188-8647-92B4-719328A7F74E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AC9E5C-0200-484D-BA3C-FB73026492AB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,10 +64,10 @@
     <t>Year</t>
   </si>
   <si>
-    <t xml:space="preserve">Texas </t>
+    <t>United States</t>
   </si>
   <si>
-    <t>United States</t>
+    <t>Texas</t>
   </si>
 </sst>
 </file>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B8E5C7-53E6-EC4E-BE0C-E84E2F8E1E4C}">
   <dimension ref="A1:D397"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D365" sqref="D365:D397"/>
+    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0">
+      <selection activeCell="A332" sqref="A332:A364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B332">
         <v>2010</v>
@@ -5101,7 +5101,7 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B333">
         <v>2010</v>
@@ -5115,7 +5115,7 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B334">
         <v>2010</v>
@@ -5129,7 +5129,7 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B335">
         <v>2010</v>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B336">
         <v>2011</v>
@@ -5157,7 +5157,7 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B337">
         <v>2011</v>
@@ -5171,7 +5171,7 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B338">
         <v>2011</v>
@@ -5185,7 +5185,7 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B339">
         <v>2011</v>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B340">
         <v>2012</v>
@@ -5213,7 +5213,7 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B341">
         <v>2012</v>
@@ -5227,7 +5227,7 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B342">
         <v>2012</v>
@@ -5241,7 +5241,7 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B343">
         <v>2012</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B344">
         <v>2013</v>
@@ -5269,7 +5269,7 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B345">
         <v>2013</v>
@@ -5283,7 +5283,7 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B346">
         <v>2013</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B347">
         <v>2013</v>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B348">
         <v>2014</v>
@@ -5325,7 +5325,7 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B349">
         <v>2014</v>
@@ -5339,7 +5339,7 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B350">
         <v>2014</v>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B351">
         <v>2014</v>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B352">
         <v>2015</v>
@@ -5381,7 +5381,7 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B353">
         <v>2015</v>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B354">
         <v>2015</v>
@@ -5409,7 +5409,7 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B355">
         <v>2015</v>
@@ -5423,7 +5423,7 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B356">
         <v>2016</v>
@@ -5437,7 +5437,7 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B357">
         <v>2016</v>
@@ -5451,7 +5451,7 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B358">
         <v>2016</v>
@@ -5465,7 +5465,7 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B359">
         <v>2016</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B360">
         <v>2017</v>
@@ -5493,7 +5493,7 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B361">
         <v>2017</v>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B362">
         <v>2017</v>
@@ -5521,7 +5521,7 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B363">
         <v>2017</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B364">
         <v>2018</v>
@@ -5549,7 +5549,7 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B365">
         <v>2010</v>
@@ -5563,7 +5563,7 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B366">
         <v>2010</v>
@@ -5577,7 +5577,7 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B367">
         <v>2010</v>
@@ -5591,7 +5591,7 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B368">
         <v>2010</v>
@@ -5605,7 +5605,7 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B369">
         <v>2011</v>
@@ -5619,7 +5619,7 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B370">
         <v>2011</v>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B371">
         <v>2011</v>
@@ -5647,7 +5647,7 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B372">
         <v>2011</v>
@@ -5661,7 +5661,7 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B373">
         <v>2012</v>
@@ -5675,7 +5675,7 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B374">
         <v>2012</v>
@@ -5689,7 +5689,7 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B375">
         <v>2012</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B376">
         <v>2012</v>
@@ -5717,7 +5717,7 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B377">
         <v>2013</v>
@@ -5731,7 +5731,7 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B378">
         <v>2013</v>
@@ -5745,7 +5745,7 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B379">
         <v>2013</v>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B380">
         <v>2013</v>
@@ -5773,7 +5773,7 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B381">
         <v>2014</v>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B382">
         <v>2014</v>
@@ -5801,7 +5801,7 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B383">
         <v>2014</v>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B384">
         <v>2014</v>
@@ -5829,7 +5829,7 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B385">
         <v>2015</v>
@@ -5843,7 +5843,7 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B386">
         <v>2015</v>
@@ -5857,7 +5857,7 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B387">
         <v>2015</v>
@@ -5871,7 +5871,7 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B388">
         <v>2015</v>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B389">
         <v>2016</v>
@@ -5899,7 +5899,7 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B390">
         <v>2016</v>
@@ -5913,7 +5913,7 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B391">
         <v>2016</v>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B392">
         <v>2016</v>
@@ -5941,7 +5941,7 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B393">
         <v>2017</v>
@@ -5955,7 +5955,7 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B394">
         <v>2017</v>
@@ -5969,7 +5969,7 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B395">
         <v>2017</v>
@@ -5983,7 +5983,7 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B396">
         <v>2017</v>
@@ -5997,7 +5997,7 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B397">
         <v>2018</v>
